--- a/OfferCruzMailBot/plantillas/oferta.xlsx
+++ b/OfferCruzMailBot/plantillas/oferta.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,6 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -552,7 +551,6 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -579,7 +577,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>3</formula1>
       <formula2>50</formula2>
@@ -587,10 +585,6 @@
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>3</formula1>
       <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9">
-      <formula1>3</formula1>
-      <formula2>15</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>3</formula1>
